--- a/08_Tests/vergleich.xlsx
+++ b/08_Tests/vergleich.xlsx
@@ -4,21 +4,21 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13305" firstSheet="1" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13305" activeTab="8"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="QP Vergleich" sheetId="1" r:id="rId1"/>
     <sheet name="PSNR" sheetId="6" r:id="rId2"/>
     <sheet name="Bitrate" sheetId="5" r:id="rId3"/>
     <sheet name="Bitrate.PSNR" sheetId="2" r:id="rId4"/>
     <sheet name="Qualität2" sheetId="4" r:id="rId5"/>
     <sheet name="Qualität1" sheetId="3" r:id="rId6"/>
     <sheet name="HEVC Vergleich" sheetId="8" r:id="rId7"/>
-    <sheet name="Лист3" sheetId="7" r:id="rId8"/>
+    <sheet name="Eigene Bewertung" sheetId="7" r:id="rId8"/>
     <sheet name="Gesichtsbereich Vergleich" sheetId="10" r:id="rId9"/>
-    <sheet name="Лист2" sheetId="9" r:id="rId10"/>
+    <sheet name="Bitrate Vergleich" sheetId="9" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -112,7 +112,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="#,##0.0000"/>
@@ -211,7 +211,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -250,6 +250,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -275,7 +276,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -290,7 +291,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$G$2</c:f>
+              <c:f>'QP Vergleich'!$G$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -325,7 +326,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$3:$A$7</c:f>
+              <c:f>'QP Vergleich'!$A$3:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
@@ -349,7 +350,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$G$3:$G$7</c:f>
+              <c:f>'QP Vergleich'!$G$3:$G$7</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
@@ -372,13 +373,18 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-342D-4AC1-8DB2-C1F07CE67B1D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$I$2</c:f>
+              <c:f>'QP Vergleich'!$I$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -413,7 +419,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$3:$A$7</c:f>
+              <c:f>'QP Vergleich'!$A$3:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
@@ -437,7 +443,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$I$3:$I$7</c:f>
+              <c:f>'QP Vergleich'!$I$3:$I$7</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
@@ -460,13 +466,18 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-342D-4AC1-8DB2-C1F07CE67B1D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$K$2</c:f>
+              <c:f>'QP Vergleich'!$K$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -501,7 +512,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$3:$A$7</c:f>
+              <c:f>'QP Vergleich'!$A$3:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
@@ -525,7 +536,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$K$3:$K$7</c:f>
+              <c:f>'QP Vergleich'!$K$3:$K$7</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
@@ -548,13 +559,18 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-342D-4AC1-8DB2-C1F07CE67B1D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$M$2</c:f>
+              <c:f>'QP Vergleich'!$M$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -589,7 +605,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$3:$A$7</c:f>
+              <c:f>'QP Vergleich'!$A$3:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
@@ -613,7 +629,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$M$3:$M$7</c:f>
+              <c:f>'QP Vergleich'!$M$3:$M$7</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
@@ -636,13 +652,18 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-342D-4AC1-8DB2-C1F07CE67B1D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="10"/>
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$O$2</c:f>
+              <c:f>'QP Vergleich'!$O$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -683,7 +704,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$O$3:$O$7</c:f>
+              <c:f>'QP Vergleich'!$O$3:$O$7</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
@@ -706,13 +727,18 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-342D-4AC1-8DB2-C1F07CE67B1D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="11"/>
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$Q$2</c:f>
+              <c:f>'QP Vergleich'!$Q$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -753,7 +779,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$Q$3:$Q$7</c:f>
+              <c:f>'QP Vergleich'!$Q$3:$Q$7</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
@@ -776,13 +802,18 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-342D-4AC1-8DB2-C1F07CE67B1D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="8"/>
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$S$2</c:f>
+              <c:f>'QP Vergleich'!$S$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -823,7 +854,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$S$3:$S$7</c:f>
+              <c:f>'QP Vergleich'!$S$3:$S$7</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
@@ -846,13 +877,18 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-342D-4AC1-8DB2-C1F07CE67B1D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="12"/>
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$U$2</c:f>
+              <c:f>'QP Vergleich'!$U$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -896,7 +932,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$U$3:$U$7</c:f>
+              <c:f>'QP Vergleich'!$U$3:$U$7</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
@@ -919,13 +955,18 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-342D-4AC1-8DB2-C1F07CE67B1D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="9"/>
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$W$2</c:f>
+              <c:f>'QP Vergleich'!$W$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -966,7 +1007,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$W$3:$W$7</c:f>
+              <c:f>'QP Vergleich'!$W$3:$W$7</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
@@ -989,13 +1030,18 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-342D-4AC1-8DB2-C1F07CE67B1D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
           <c:order val="9"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$Y$2</c:f>
+              <c:f>'QP Vergleich'!$Y$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1030,7 +1076,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$3:$A$7</c:f>
+              <c:f>'QP Vergleich'!$A$3:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1054,7 +1100,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$Y$3:$Y$7</c:f>
+              <c:f>'QP Vergleich'!$Y$3:$Y$7</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1077,13 +1123,18 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-342D-4AC1-8DB2-C1F07CE67B1D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
           <c:order val="10"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$AA$2</c:f>
+              <c:f>'QP Vergleich'!$AA$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1124,7 +1175,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$AA$3:$AA$7</c:f>
+              <c:f>'QP Vergleich'!$AA$3:$AA$7</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1147,13 +1198,18 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-342D-4AC1-8DB2-C1F07CE67B1D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
           <c:order val="11"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$AC$2</c:f>
+              <c:f>'QP Vergleich'!$AC$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1188,7 +1244,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$3:$A$7</c:f>
+              <c:f>'QP Vergleich'!$A$3:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1212,7 +1268,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$AC$3:$AC$7</c:f>
+              <c:f>'QP Vergleich'!$AC$3:$AC$7</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1235,13 +1291,18 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-342D-4AC1-8DB2-C1F07CE67B1D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="7"/>
           <c:order val="12"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$AE$2</c:f>
+              <c:f>'QP Vergleich'!$AE$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1282,7 +1343,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$AE$3:$AE$7</c:f>
+              <c:f>'QP Vergleich'!$AE$3:$AE$7</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1305,6 +1366,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-342D-4AC1-8DB2-C1F07CE67B1D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1352,6 +1418,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1377,7 +1444,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1415,7 +1482,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1590623936"/>
@@ -1472,6 +1539,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1497,7 +1565,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1529,7 +1597,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1590624480"/>
@@ -1546,6 +1614,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1571,7 +1640,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1601,14 +1670,14 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -1647,6 +1716,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1672,7 +1742,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1687,7 +1757,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$F$2</c:f>
+              <c:f>'QP Vergleich'!$F$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1722,7 +1792,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$3:$A$7</c:f>
+              <c:f>'QP Vergleich'!$A$3:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1746,7 +1816,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$F$3:$F$7</c:f>
+              <c:f>'QP Vergleich'!$F$3:$F$7</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1769,13 +1839,18 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6784-4795-99D4-EBB42D8FC755}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$H$2</c:f>
+              <c:f>'QP Vergleich'!$H$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1811,7 +1886,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$3:$A$7</c:f>
+              <c:f>'QP Vergleich'!$A$3:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1836,7 +1911,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$H$3:$H$7</c:f>
+              <c:f>'QP Vergleich'!$H$3:$H$7</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1860,13 +1935,18 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6784-4795-99D4-EBB42D8FC755}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$J$2</c:f>
+              <c:f>'QP Vergleich'!$J$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1902,7 +1982,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$3:$A$7</c:f>
+              <c:f>'QP Vergleich'!$A$3:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1927,7 +2007,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$J$3:$J$7</c:f>
+              <c:f>'QP Vergleich'!$J$3:$J$7</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1951,13 +2031,18 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6784-4795-99D4-EBB42D8FC755}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$L$2</c:f>
+              <c:f>'QP Vergleich'!$L$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1993,7 +2078,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$3:$A$7</c:f>
+              <c:f>'QP Vergleich'!$A$3:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2018,7 +2103,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$L$3:$L$7</c:f>
+              <c:f>'QP Vergleich'!$L$3:$L$7</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2042,13 +2127,18 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-6784-4795-99D4-EBB42D8FC755}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="10"/>
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$N$2</c:f>
+              <c:f>'QP Vergleich'!$N$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2089,7 +2179,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$N$3:$N$7</c:f>
+              <c:f>'QP Vergleich'!$N$3:$N$7</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2112,13 +2202,18 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-6784-4795-99D4-EBB42D8FC755}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="11"/>
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$P$2</c:f>
+              <c:f>'QP Vergleich'!$P$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2159,7 +2254,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$P$3:$P$7</c:f>
+              <c:f>'QP Vergleich'!$P$3:$P$7</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2182,13 +2277,18 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-6784-4795-99D4-EBB42D8FC755}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="8"/>
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$R$2</c:f>
+              <c:f>'QP Vergleich'!$R$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2229,7 +2329,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$R$3:$R$7</c:f>
+              <c:f>'QP Vergleich'!$R$3:$R$7</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2252,13 +2352,18 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-6784-4795-99D4-EBB42D8FC755}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="12"/>
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$T$2</c:f>
+              <c:f>'QP Vergleich'!$T$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2302,7 +2407,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$T$3:$T$7</c:f>
+              <c:f>'QP Vergleich'!$T$3:$T$7</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2325,13 +2430,18 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-6784-4795-99D4-EBB42D8FC755}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="9"/>
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$V$2</c:f>
+              <c:f>'QP Vergleich'!$V$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2372,7 +2482,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$V$3:$V$7</c:f>
+              <c:f>'QP Vergleich'!$V$3:$V$7</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2395,13 +2505,18 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-6784-4795-99D4-EBB42D8FC755}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
           <c:order val="9"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$X$2</c:f>
+              <c:f>'QP Vergleich'!$X$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2437,7 +2552,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$3:$A$7</c:f>
+              <c:f>'QP Vergleich'!$A$3:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2462,7 +2577,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$X$3:$X$7</c:f>
+              <c:f>'QP Vergleich'!$X$3:$X$7</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2486,13 +2601,18 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-6784-4795-99D4-EBB42D8FC755}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="10"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$Z$2</c:f>
+              <c:f>'QP Vergleich'!$Z$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2528,7 +2648,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$Z$3:$Z$7</c:f>
+              <c:f>'QP Vergleich'!$Z$3:$Z$7</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2552,13 +2672,18 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-6784-4795-99D4-EBB42D8FC755}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
           <c:order val="11"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$AB$2</c:f>
+              <c:f>'QP Vergleich'!$AB$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2600,7 +2725,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$3:$A$7</c:f>
+              <c:f>'QP Vergleich'!$A$3:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2625,7 +2750,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$AB$3:$AB$7</c:f>
+              <c:f>'QP Vergleich'!$AB$3:$AB$7</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2649,13 +2774,18 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-6784-4795-99D4-EBB42D8FC755}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="7"/>
           <c:order val="12"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$AD$2</c:f>
+              <c:f>'QP Vergleich'!$AD$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2697,7 +2827,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$AD$3:$AD$7</c:f>
+              <c:f>'QP Vergleich'!$AD$3:$AD$7</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2721,6 +2851,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-6784-4795-99D4-EBB42D8FC755}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2769,6 +2904,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2794,7 +2930,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2832,7 +2968,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1590631008"/>
@@ -2890,6 +3026,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2915,7 +3052,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2947,7 +3084,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1590621760"/>
@@ -2964,6 +3101,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2989,7 +3127,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3019,14 +3157,14 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -3092,7 +3230,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3109,8 +3247,8 @@
           <c:h val="0.67845847877262766"/>
         </c:manualLayout>
       </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -3150,7 +3288,7 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>Bitrate.PSNR!$B$2:$B$53</c:f>
               <c:numCache>
@@ -3314,8 +3452,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>Bitrate.PSNR!$C$2:$C$53</c:f>
               <c:numCache>
@@ -3335,8 +3473,13 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6379-4AB1-A6AE-2FE201407C45}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -3376,7 +3519,7 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>Bitrate.PSNR!$B$2:$B$53</c:f>
               <c:numCache>
@@ -3540,8 +3683,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>Bitrate.PSNR!$D$2:$D$53</c:f>
               <c:numCache>
@@ -3561,8 +3704,13 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6379-4AB1-A6AE-2FE201407C45}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -3602,7 +3750,7 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>Bitrate.PSNR!$B$2:$B$53</c:f>
               <c:numCache>
@@ -3766,8 +3914,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>Bitrate.PSNR!$E$2:$E$53</c:f>
               <c:numCache>
@@ -3787,8 +3935,13 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6379-4AB1-A6AE-2FE201407C45}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -3828,7 +3981,7 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>Bitrate.PSNR!$B$2:$B$53</c:f>
               <c:numCache>
@@ -3992,8 +4145,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>Bitrate.PSNR!$F$2:$F$53</c:f>
               <c:numCache>
@@ -4016,8 +4169,13 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-6379-4AB1-A6AE-2FE201407C45}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -4057,7 +4215,7 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>Bitrate.PSNR!$B$2:$B$53</c:f>
               <c:numCache>
@@ -4221,8 +4379,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>Bitrate.PSNR!$G$2:$G$53</c:f>
               <c:numCache>
@@ -4242,8 +4400,13 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-6379-4AB1-A6AE-2FE201407C45}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -4283,7 +4446,7 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>Bitrate.PSNR!$B$2:$B$53</c:f>
               <c:numCache>
@@ -4447,8 +4610,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>Bitrate.PSNR!$H$2:$H$53</c:f>
               <c:numCache>
@@ -4468,8 +4631,13 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-6379-4AB1-A6AE-2FE201407C45}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
@@ -4515,7 +4683,7 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>Bitrate.PSNR!$B$2:$B$53</c:f>
               <c:numCache>
@@ -4679,8 +4847,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>Bitrate.PSNR!$I$2:$I$53</c:f>
               <c:numCache>
@@ -4700,8 +4868,13 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-6379-4AB1-A6AE-2FE201407C45}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="7"/>
@@ -4747,7 +4920,7 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>Bitrate.PSNR!$B$2:$B$53</c:f>
               <c:numCache>
@@ -4911,8 +5084,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>Bitrate.PSNR!$J$2:$J$53</c:f>
               <c:numCache>
@@ -4932,8 +5105,13 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-6379-4AB1-A6AE-2FE201407C45}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="8"/>
@@ -4979,7 +5157,7 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>Bitrate.PSNR!$B$2:$B$53</c:f>
               <c:numCache>
@@ -5143,8 +5321,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>Bitrate.PSNR!$K$2:$K$53</c:f>
               <c:numCache>
@@ -5164,8 +5342,13 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-6379-4AB1-A6AE-2FE201407C45}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="9"/>
@@ -5211,7 +5394,7 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>Bitrate.PSNR!$B$2:$B$53</c:f>
               <c:numCache>
@@ -5375,8 +5558,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>Bitrate.PSNR!$L$2:$L$53</c:f>
               <c:numCache>
@@ -5396,8 +5579,13 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-6379-4AB1-A6AE-2FE201407C45}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="10"/>
@@ -5443,7 +5631,7 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>Bitrate.PSNR!$B$2:$B$53</c:f>
               <c:numCache>
@@ -5607,8 +5795,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>Bitrate.PSNR!$M$2:$M$53</c:f>
               <c:numCache>
@@ -5628,8 +5816,13 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-6379-4AB1-A6AE-2FE201407C45}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="11"/>
@@ -5675,7 +5868,7 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>Bitrate.PSNR!$B$2:$B$53</c:f>
               <c:numCache>
@@ -5839,8 +6032,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>Bitrate.PSNR!$N$2:$N$53</c:f>
               <c:numCache>
@@ -5860,8 +6053,13 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-6379-4AB1-A6AE-2FE201407C45}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="12"/>
@@ -5910,7 +6108,7 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>Bitrate.PSNR!$B$2:$B$53</c:f>
               <c:numCache>
@@ -6074,8 +6272,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>Bitrate.PSNR!$O$2:$O$53</c:f>
               <c:numCache>
@@ -6095,8 +6293,13 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-6379-4AB1-A6AE-2FE201407C45}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -6106,27 +6309,10 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:dropLines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="35000"/>
-                  <a:lumOff val="65000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:dropLines>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
         <c:axId val="1590634272"/>
         <c:axId val="1590622848"/>
-        <c:extLst/>
-      </c:lineChart>
-      <c:catAx>
+      </c:scatterChart>
+      <c:valAx>
         <c:axId val="1590634272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
@@ -6185,11 +6371,11 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="#,##0.0000" sourceLinked="0"/>
+        <c:numFmt formatCode="#,##0.0000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -6223,16 +6409,13 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1590622848"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
         <c:axId val="1590622848"/>
         <c:scaling>
@@ -6306,7 +6489,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6338,7 +6521,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1590634272"/>
@@ -6381,7 +6564,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -6411,14 +6594,14 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -6484,7 +6667,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6501,8 +6684,8 @@
           <c:h val="0.67845847877262766"/>
         </c:manualLayout>
       </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -6542,7 +6725,7 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>Bitrate.PSNR!$B$2:$B$57</c:f>
               <c:numCache>
@@ -6718,8 +6901,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>Bitrate.PSNR!$C$2:$C$57</c:f>
               <c:numCache>
@@ -6742,8 +6925,13 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F96A-480C-BC8D-5B72A4DE9DB4}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -6783,7 +6971,7 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>Bitrate.PSNR!$B$2:$B$57</c:f>
               <c:numCache>
@@ -6959,8 +7147,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>Bitrate.PSNR!$D$2:$D$57</c:f>
               <c:numCache>
@@ -6983,8 +7171,13 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F96A-480C-BC8D-5B72A4DE9DB4}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -7024,7 +7217,7 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>Bitrate.PSNR!$B$2:$B$57</c:f>
               <c:numCache>
@@ -7200,8 +7393,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>Bitrate.PSNR!$F$2:$F$57</c:f>
               <c:numCache>
@@ -7224,8 +7417,13 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F96A-480C-BC8D-5B72A4DE9DB4}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -7235,27 +7433,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:dropLines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="35000"/>
-                  <a:lumOff val="65000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:dropLines>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
         <c:axId val="1590626112"/>
         <c:axId val="1590628832"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredLineSeries>
+            <c15:filteredScatterSeries>
               <c15:ser>
                 <c:idx val="2"/>
                 <c:order val="2"/>
@@ -7300,7 +7482,7 @@
                     <a:effectLst/>
                   </c:spPr>
                 </c:marker>
-                <c:cat>
+                <c:xVal>
                   <c:numRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
@@ -7482,8 +7664,8 @@
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
-                </c:cat>
-                <c:val>
+                </c:xVal>
+                <c:yVal>
                   <c:numRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
@@ -7512,11 +7694,16 @@
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
-                </c:val>
-                <c:smooth val="0"/>
+                </c:yVal>
+                <c:smooth val="1"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-F96A-480C-BC8D-5B72A4DE9DB4}"/>
+                  </c:ext>
+                </c:extLst>
               </c15:ser>
-            </c15:filteredLineSeries>
-            <c15:filteredLineSeries>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
               <c15:ser>
                 <c:idx val="4"/>
                 <c:order val="4"/>
@@ -7561,7 +7748,7 @@
                     <a:effectLst/>
                   </c:spPr>
                 </c:marker>
-                <c:cat>
+                <c:xVal>
                   <c:numRef>
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
@@ -7743,8 +7930,8 @@
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
-                </c:cat>
-                <c:val>
+                </c:xVal>
+                <c:yVal>
                   <c:numRef>
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
@@ -7773,11 +7960,16 @@
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
-                </c:val>
-                <c:smooth val="0"/>
+                </c:yVal>
+                <c:smooth val="1"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-F96A-480C-BC8D-5B72A4DE9DB4}"/>
+                  </c:ext>
+                </c:extLst>
               </c15:ser>
-            </c15:filteredLineSeries>
-            <c15:filteredLineSeries>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
               <c15:ser>
                 <c:idx val="5"/>
                 <c:order val="5"/>
@@ -7822,7 +8014,7 @@
                     <a:effectLst/>
                   </c:spPr>
                 </c:marker>
-                <c:cat>
+                <c:xVal>
                   <c:numRef>
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
@@ -8004,8 +8196,8 @@
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
-                </c:cat>
-                <c:val>
+                </c:xVal>
+                <c:yVal>
                   <c:numRef>
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
@@ -8034,11 +8226,16 @@
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
-                </c:val>
-                <c:smooth val="0"/>
+                </c:yVal>
+                <c:smooth val="1"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000005-F96A-480C-BC8D-5B72A4DE9DB4}"/>
+                  </c:ext>
+                </c:extLst>
               </c15:ser>
-            </c15:filteredLineSeries>
-            <c15:filteredLineSeries>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
               <c15:ser>
                 <c:idx val="6"/>
                 <c:order val="6"/>
@@ -8089,7 +8286,7 @@
                     <a:effectLst/>
                   </c:spPr>
                 </c:marker>
-                <c:cat>
+                <c:xVal>
                   <c:numRef>
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
@@ -8271,8 +8468,8 @@
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
-                </c:cat>
-                <c:val>
+                </c:xVal>
+                <c:yVal>
                   <c:numRef>
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
@@ -8301,11 +8498,16 @@
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
-                </c:val>
-                <c:smooth val="0"/>
+                </c:yVal>
+                <c:smooth val="1"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000006-F96A-480C-BC8D-5B72A4DE9DB4}"/>
+                  </c:ext>
+                </c:extLst>
               </c15:ser>
-            </c15:filteredLineSeries>
-            <c15:filteredLineSeries>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
               <c15:ser>
                 <c:idx val="7"/>
                 <c:order val="7"/>
@@ -8356,7 +8558,7 @@
                     <a:effectLst/>
                   </c:spPr>
                 </c:marker>
-                <c:cat>
+                <c:xVal>
                   <c:numRef>
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
@@ -8538,8 +8740,8 @@
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
-                </c:cat>
-                <c:val>
+                </c:xVal>
+                <c:yVal>
                   <c:numRef>
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
@@ -8568,11 +8770,16 @@
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
-                </c:val>
-                <c:smooth val="0"/>
+                </c:yVal>
+                <c:smooth val="1"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000007-F96A-480C-BC8D-5B72A4DE9DB4}"/>
+                  </c:ext>
+                </c:extLst>
               </c15:ser>
-            </c15:filteredLineSeries>
-            <c15:filteredLineSeries>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
               <c15:ser>
                 <c:idx val="8"/>
                 <c:order val="8"/>
@@ -8623,7 +8830,7 @@
                     <a:effectLst/>
                   </c:spPr>
                 </c:marker>
-                <c:cat>
+                <c:xVal>
                   <c:numRef>
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
@@ -8805,8 +9012,8 @@
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
-                </c:cat>
-                <c:val>
+                </c:xVal>
+                <c:yVal>
                   <c:numRef>
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
@@ -8835,11 +9042,16 @@
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
-                </c:val>
-                <c:smooth val="0"/>
+                </c:yVal>
+                <c:smooth val="1"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000008-F96A-480C-BC8D-5B72A4DE9DB4}"/>
+                  </c:ext>
+                </c:extLst>
               </c15:ser>
-            </c15:filteredLineSeries>
-            <c15:filteredLineSeries>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
               <c15:ser>
                 <c:idx val="9"/>
                 <c:order val="9"/>
@@ -8890,7 +9102,7 @@
                     <a:effectLst/>
                   </c:spPr>
                 </c:marker>
-                <c:cat>
+                <c:xVal>
                   <c:numRef>
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
@@ -9072,8 +9284,8 @@
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
-                </c:cat>
-                <c:val>
+                </c:xVal>
+                <c:yVal>
                   <c:numRef>
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
@@ -9102,11 +9314,16 @@
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
-                </c:val>
-                <c:smooth val="0"/>
+                </c:yVal>
+                <c:smooth val="1"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000009-F96A-480C-BC8D-5B72A4DE9DB4}"/>
+                  </c:ext>
+                </c:extLst>
               </c15:ser>
-            </c15:filteredLineSeries>
-            <c15:filteredLineSeries>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
               <c15:ser>
                 <c:idx val="10"/>
                 <c:order val="10"/>
@@ -9157,7 +9374,7 @@
                     <a:effectLst/>
                   </c:spPr>
                 </c:marker>
-                <c:cat>
+                <c:xVal>
                   <c:numRef>
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
@@ -9339,8 +9556,8 @@
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
-                </c:cat>
-                <c:val>
+                </c:xVal>
+                <c:yVal>
                   <c:numRef>
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
@@ -9369,11 +9586,16 @@
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
-                </c:val>
-                <c:smooth val="0"/>
+                </c:yVal>
+                <c:smooth val="1"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000000A-F96A-480C-BC8D-5B72A4DE9DB4}"/>
+                  </c:ext>
+                </c:extLst>
               </c15:ser>
-            </c15:filteredLineSeries>
-            <c15:filteredLineSeries>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
               <c15:ser>
                 <c:idx val="11"/>
                 <c:order val="11"/>
@@ -9424,7 +9646,7 @@
                     <a:effectLst/>
                   </c:spPr>
                 </c:marker>
-                <c:cat>
+                <c:xVal>
                   <c:numRef>
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
@@ -9606,8 +9828,8 @@
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
-                </c:cat>
-                <c:val>
+                </c:xVal>
+                <c:yVal>
                   <c:numRef>
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
@@ -9636,11 +9858,16 @@
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
-                </c:val>
-                <c:smooth val="0"/>
+                </c:yVal>
+                <c:smooth val="1"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000000B-F96A-480C-BC8D-5B72A4DE9DB4}"/>
+                  </c:ext>
+                </c:extLst>
               </c15:ser>
-            </c15:filteredLineSeries>
-            <c15:filteredLineSeries>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
               <c15:ser>
                 <c:idx val="12"/>
                 <c:order val="12"/>
@@ -9694,7 +9921,7 @@
                     <a:effectLst/>
                   </c:spPr>
                 </c:marker>
-                <c:cat>
+                <c:xVal>
                   <c:numRef>
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
@@ -9876,8 +10103,8 @@
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
-                </c:cat>
-                <c:val>
+                </c:xVal>
+                <c:yVal>
                   <c:numRef>
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
@@ -9906,14 +10133,19 @@
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
-                </c:val>
-                <c:smooth val="0"/>
+                </c:yVal>
+                <c:smooth val="1"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000000C-F96A-480C-BC8D-5B72A4DE9DB4}"/>
+                  </c:ext>
+                </c:extLst>
               </c15:ser>
-            </c15:filteredLineSeries>
+            </c15:filteredScatterSeries>
           </c:ext>
         </c:extLst>
-      </c:lineChart>
-      <c:catAx>
+      </c:scatterChart>
+      <c:valAx>
         <c:axId val="1590626112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
@@ -9972,7 +10204,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -10010,16 +10242,13 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1590628832"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
         <c:axId val="1590628832"/>
         <c:scaling>
@@ -10093,7 +10322,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -10125,7 +10354,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1590626112"/>
@@ -10168,7 +10397,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -10198,14 +10427,14 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -10274,22 +10503,22 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист3!$B$1</c:f>
+              <c:f>'Eigene Bewertung'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10336,7 +10565,7 @@
                       <a:pPr/>
                       <a:t>[ССЫЛКА НА ЯЧЕЙКУ]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="de-DE"/>
+                    <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -10353,7 +10582,7 @@
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
                       <c15:txfldGUID>{AFE20D6F-1CC9-4052-AB60-6C3B4F29B940}</c15:txfldGUID>
-                      <c15:f>Лист3!$D$2</c15:f>
+                      <c15:f>'Eigene Bewertung'!$D$2</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -10363,6 +10592,9 @@
                     </c15:dlblFTEntry>
                   </c15:dlblFieldTable>
                   <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-1EAA-429F-980E-B9500D1F121D}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -10379,7 +10611,7 @@
                       <a:pPr/>
                       <a:t>[ССЫЛКА НА ЯЧЕЙКУ]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="de-DE"/>
+                    <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -10396,7 +10628,7 @@
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
                       <c15:txfldGUID>{F8BEBA44-B756-4137-9714-0208C652F748}</c15:txfldGUID>
-                      <c15:f>Лист3!$D$3</c15:f>
+                      <c15:f>'Eigene Bewertung'!$D$3</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -10406,6 +10638,9 @@
                     </c15:dlblFTEntry>
                   </c15:dlblFieldTable>
                   <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-1EAA-429F-980E-B9500D1F121D}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -10422,7 +10657,7 @@
                       <a:pPr/>
                       <a:t>[ССЫЛКА НА ЯЧЕЙКУ]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="de-DE"/>
+                    <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -10439,7 +10674,7 @@
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
                       <c15:txfldGUID>{CF8333B8-2609-40A4-ACEA-EB8C8F5D9E9F}</c15:txfldGUID>
-                      <c15:f>Лист3!$D$4</c15:f>
+                      <c15:f>'Eigene Bewertung'!$D$4</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -10449,6 +10684,9 @@
                     </c15:dlblFTEntry>
                   </c15:dlblFieldTable>
                   <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-1EAA-429F-980E-B9500D1F121D}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -10465,7 +10703,7 @@
                       <a:pPr/>
                       <a:t>[ССЫЛКА НА ЯЧЕЙКУ]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="de-DE"/>
+                    <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -10482,7 +10720,7 @@
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
                       <c15:txfldGUID>{D876B75F-BD14-4D27-A4AB-E5E0DAF11D1F}</c15:txfldGUID>
-                      <c15:f>Лист3!$D$5</c15:f>
+                      <c15:f>'Eigene Bewertung'!$D$5</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -10492,6 +10730,9 @@
                     </c15:dlblFTEntry>
                   </c15:dlblFieldTable>
                   <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-1EAA-429F-980E-B9500D1F121D}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -10508,7 +10749,7 @@
                       <a:pPr/>
                       <a:t>[ССЫЛКА НА ЯЧЕЙКУ]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="de-DE"/>
+                    <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -10525,7 +10766,7 @@
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
                       <c15:txfldGUID>{BCC923F3-F55E-4853-AB9B-2AFCEEBE3F5F}</c15:txfldGUID>
-                      <c15:f>Лист3!$D$6</c15:f>
+                      <c15:f>'Eigene Bewertung'!$D$6</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -10535,6 +10776,9 @@
                     </c15:dlblFTEntry>
                   </c15:dlblFieldTable>
                   <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-1EAA-429F-980E-B9500D1F121D}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -10564,7 +10808,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="de-DE"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="t"/>
@@ -10595,9 +10839,9 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
-              <c:f>Лист3!$A$2:$A$6</c:f>
+              <c:f>'Eigene Bewertung'!$A$2:$A$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -10618,10 +10862,10 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
-              <c:f>Лист3!$B$2:$B$6</c:f>
+              <c:f>'Eigene Bewertung'!$B$2:$B$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -10642,15 +10886,20 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-1EAA-429F-980E-B9500D1F121D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист3!$C$1</c:f>
+              <c:f>'Eigene Bewertung'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10686,9 +10935,9 @@
           <c:dLbls>
             <c:delete val="1"/>
           </c:dLbls>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
-              <c:f>Лист3!$A$2:$A$6</c:f>
+              <c:f>'Eigene Bewertung'!$A$2:$A$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -10709,10 +10958,10 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
-              <c:f>Лист3!$C$2:$C$6</c:f>
+              <c:f>'Eigene Bewertung'!$C$2:$C$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -10733,8 +10982,13 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-1EAA-429F-980E-B9500D1F121D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:dLblPos val="t"/>
@@ -10745,12 +10999,10 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
         <c:axId val="1590627744"/>
         <c:axId val="1590628288"/>
-      </c:lineChart>
-      <c:catAx>
+      </c:scatterChart>
+      <c:valAx>
         <c:axId val="1590627744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
@@ -10809,7 +11061,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -10847,16 +11099,13 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1590628288"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
         <c:axId val="1590628288"/>
         <c:scaling>
@@ -10931,7 +11180,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -10963,12 +11212,12 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1590627744"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -11006,7 +11255,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -11036,14 +11285,14 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -11109,22 +11358,22 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист2!$A$2</c:f>
+              <c:f>'Bitrate Vergleich'!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11160,9 +11409,9 @@
           <c:dLbls>
             <c:delete val="1"/>
           </c:dLbls>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
-              <c:f>Лист1!$F$3:$F$7</c:f>
+              <c:f>'QP Vergleich'!$F$3:$F$7</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
@@ -11183,10 +11432,10 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
-              <c:f>Лист2!$B$3:$B$7</c:f>
+              <c:f>'Bitrate Vergleich'!$B$3:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -11207,15 +11456,20 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A37B-49CF-8525-A38C651A65E1}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист2!$D$2</c:f>
+              <c:f>'Bitrate Vergleich'!$D$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11262,7 +11516,7 @@
                       <a:pPr/>
                       <a:t>[ССЫЛКА НА ЯЧЕЙКУ]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="de-DE"/>
+                    <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -11279,7 +11533,7 @@
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
                       <c15:txfldGUID>{FFD25F3C-156C-4602-BDEC-A92C05FCBCE2}</c15:txfldGUID>
-                      <c15:f>Лист3!$D$9</c15:f>
+                      <c15:f>'Eigene Bewertung'!$D$9</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -11289,6 +11543,9 @@
                     </c15:dlblFTEntry>
                   </c15:dlblFieldTable>
                   <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-A37B-49CF-8525-A38C651A65E1}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -11305,7 +11562,7 @@
                       <a:pPr/>
                       <a:t>[ССЫЛКА НА ЯЧЕЙКУ]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="de-DE"/>
+                    <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -11322,7 +11579,7 @@
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
                       <c15:txfldGUID>{4CFDA43C-EF0D-4C81-BB6D-8217B8F66A9E}</c15:txfldGUID>
-                      <c15:f>Лист3!$D$10</c15:f>
+                      <c15:f>'Eigene Bewertung'!$D$10</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -11332,6 +11589,9 @@
                     </c15:dlblFTEntry>
                   </c15:dlblFieldTable>
                   <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-A37B-49CF-8525-A38C651A65E1}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -11348,7 +11608,7 @@
                       <a:pPr/>
                       <a:t>[ССЫЛКА НА ЯЧЕЙКУ]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="de-DE"/>
+                    <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -11365,7 +11625,7 @@
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
                       <c15:txfldGUID>{74A5A7A8-A8EA-4D3C-846E-2955017D8EC8}</c15:txfldGUID>
-                      <c15:f>Лист3!$D$11</c15:f>
+                      <c15:f>'Eigene Bewertung'!$D$11</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -11375,6 +11635,9 @@
                     </c15:dlblFTEntry>
                   </c15:dlblFieldTable>
                   <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-A37B-49CF-8525-A38C651A65E1}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -11391,7 +11654,7 @@
                       <a:pPr/>
                       <a:t>[ССЫЛКА НА ЯЧЕЙКУ]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="de-DE"/>
+                    <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -11408,7 +11671,7 @@
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
                       <c15:txfldGUID>{E0CF65CE-B867-467A-95D1-5D80D9C8C96C}</c15:txfldGUID>
-                      <c15:f>Лист3!$D$12</c15:f>
+                      <c15:f>'Eigene Bewertung'!$D$12</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -11418,6 +11681,9 @@
                     </c15:dlblFTEntry>
                   </c15:dlblFieldTable>
                   <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-A37B-49CF-8525-A38C651A65E1}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -11434,7 +11700,7 @@
                       <a:pPr/>
                       <a:t>[ССЫЛКА НА ЯЧЕЙКУ]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="de-DE"/>
+                    <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -11451,7 +11717,7 @@
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
                       <c15:txfldGUID>{92BD711A-9ADF-470D-90F8-217D1922EDCE}</c15:txfldGUID>
-                      <c15:f>Лист3!$D$14</c15:f>
+                      <c15:f>'Eigene Bewertung'!$D$14</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
@@ -11461,6 +11727,9 @@
                     </c15:dlblFTEntry>
                   </c15:dlblFieldTable>
                   <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-A37B-49CF-8525-A38C651A65E1}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -11490,7 +11759,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="de-DE"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="t"/>
@@ -11503,7 +11772,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -11522,9 +11790,9 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
-              <c:f>Лист1!$F$3:$F$7</c:f>
+              <c:f>'QP Vergleich'!$F$3:$F$7</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
@@ -11545,10 +11813,10 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
-              <c:f>Лист2!$E$3:$E$7</c:f>
+              <c:f>'Bitrate Vergleich'!$E$3:$E$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -11569,8 +11837,13 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-A37B-49CF-8525-A38C651A65E1}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:dLblPos val="t"/>
@@ -11581,12 +11854,10 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
         <c:axId val="1773072592"/>
         <c:axId val="1773069872"/>
-      </c:lineChart>
-      <c:catAx>
+      </c:scatterChart>
+      <c:valAx>
         <c:axId val="1773072592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
@@ -11646,7 +11917,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -11684,16 +11955,13 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1773069872"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
         <c:axId val="1773069872"/>
         <c:scaling>
@@ -11767,7 +12035,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -11799,12 +12067,12 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1773072592"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -11842,7 +12110,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -11872,7 +12140,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
@@ -15140,7 +15408,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="110" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="129" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -15151,7 +15419,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="110" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="129" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -15162,7 +15430,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="74" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="129" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -15173,7 +15441,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="74" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="129" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -15184,7 +15452,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="74" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="129" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -15195,7 +15463,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="132" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="129" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -15206,7 +15474,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9291205" cy="6070023"/>
+    <xdr:ext cx="9310872" cy="6084186"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Диаграмма 1"/>
@@ -15233,7 +15501,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9291205" cy="6070023"/>
+    <xdr:ext cx="9310872" cy="6084186"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Диаграмма 1"/>
@@ -15260,7 +15528,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9293311" cy="6075405"/>
+    <xdr:ext cx="9310872" cy="6084186"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Диаграмма 1"/>
@@ -15287,7 +15555,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9293311" cy="6075405"/>
+    <xdr:ext cx="9310872" cy="6084186"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Диаграмма 1"/>
@@ -15314,7 +15582,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9293311" cy="6075405"/>
+    <xdr:ext cx="9310872" cy="6084186"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Диаграмма 1"/>
@@ -15341,7 +15609,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9294091" cy="6075795"/>
+    <xdr:ext cx="9310872" cy="6084186"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Диаграмма 1"/>
@@ -16294,23 +16562,23 @@
         <v>4</v>
       </c>
       <c r="G1" s="3" t="str">
-        <f>Лист1!$N$2</f>
+        <f>'QP Vergleich'!$N$2</f>
         <v>-6 +1</v>
       </c>
       <c r="H1" s="3" t="str">
-        <f>Лист1!$P$2</f>
+        <f>'QP Vergleich'!$P$2</f>
         <v>-6 +2</v>
       </c>
       <c r="I1" s="3" t="str">
-        <f>Лист1!R2</f>
+        <f>'QP Vergleich'!R2</f>
         <v>-6 +3</v>
       </c>
       <c r="J1" s="3" t="str">
-        <f>Лист1!$T$2</f>
+        <f>'QP Vergleich'!$T$2</f>
         <v>-6 +4</v>
       </c>
       <c r="K1" s="3" t="str">
-        <f>Лист1!$V$2</f>
+        <f>'QP Vergleich'!$V$2</f>
         <v>-6 +5</v>
       </c>
       <c r="L1" s="6" t="s">
@@ -16328,14 +16596,14 @@
     </row>
     <row r="2" spans="1:55" x14ac:dyDescent="0.25">
       <c r="B2" s="11">
-        <f>Лист1!L3</f>
+        <f>'QP Vergleich'!L3</f>
         <v>4070.0160000000001</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="7"/>
       <c r="E2" s="8"/>
       <c r="F2" s="4">
-        <f>Лист1!M3</f>
+        <f>'QP Vergleich'!M3</f>
         <v>51.781100000000002</v>
       </c>
       <c r="G2" s="5"/>
@@ -16350,7 +16618,7 @@
     </row>
     <row r="3" spans="1:55" x14ac:dyDescent="0.25">
       <c r="B3" s="10">
-        <f>Лист1!N3</f>
+        <f>'QP Vergleich'!N3</f>
         <v>3900.08</v>
       </c>
       <c r="C3" s="5"/>
@@ -16358,7 +16626,7 @@
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="4">
-        <f>Лист1!O3</f>
+        <f>'QP Vergleich'!O3</f>
         <v>51.201999999999998</v>
       </c>
       <c r="H3" s="5"/>
@@ -16372,7 +16640,7 @@
     </row>
     <row r="4" spans="1:55" x14ac:dyDescent="0.25">
       <c r="B4" s="10">
-        <f>Лист1!P3</f>
+        <f>'QP Vergleich'!P3</f>
         <v>3758.7759999999998</v>
       </c>
       <c r="C4" s="5"/>
@@ -16381,7 +16649,7 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="4">
-        <f>Лист1!Q3</f>
+        <f>'QP Vergleich'!Q3</f>
         <v>50.674900000000001</v>
       </c>
       <c r="I4" s="5"/>
@@ -16394,12 +16662,12 @@
     </row>
     <row r="5" spans="1:55" x14ac:dyDescent="0.25">
       <c r="B5" s="11">
-        <f>Лист1!$H$3</f>
+        <f>'QP Vergleich'!$H$3</f>
         <v>3706.248</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="4">
-        <f>Лист1!$I$3</f>
+        <f>'QP Vergleich'!$I$3</f>
         <v>51.508899999999997</v>
       </c>
       <c r="E5" s="5"/>
@@ -16416,7 +16684,7 @@
     </row>
     <row r="6" spans="1:55" x14ac:dyDescent="0.25">
       <c r="B6" s="10">
-        <f>Лист1!R3</f>
+        <f>'QP Vergleich'!R3</f>
         <v>3623.9760000000001</v>
       </c>
       <c r="C6" s="5"/>
@@ -16426,7 +16694,7 @@
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
       <c r="I6" s="4">
-        <f>Лист1!S3</f>
+        <f>'QP Vergleich'!S3</f>
         <v>50.147599999999997</v>
       </c>
       <c r="J6" s="5"/>
@@ -16439,7 +16707,7 @@
     <row r="7" spans="1:55" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13"/>
       <c r="B7" s="10">
-        <f>Лист1!T3</f>
+        <f>'QP Vergleich'!T3</f>
         <v>3489.3919999999998</v>
       </c>
       <c r="C7" s="5"/>
@@ -16450,7 +16718,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
       <c r="J7" s="4">
-        <f>Лист1!U3</f>
+        <f>'QP Vergleich'!U3</f>
         <v>49.487499999999997</v>
       </c>
       <c r="K7" s="5"/>
@@ -16502,7 +16770,7 @@
     <row r="8" spans="1:55" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13"/>
       <c r="B8" s="10">
-        <f>Лист1!V3</f>
+        <f>'QP Vergleich'!V3</f>
         <v>3341.0880000000002</v>
       </c>
       <c r="C8" s="5"/>
@@ -16514,7 +16782,7 @@
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
       <c r="K8" s="4">
-        <f>Лист1!W3</f>
+        <f>'QP Vergleich'!W3</f>
         <v>48.670499999999997</v>
       </c>
       <c r="L8" s="5"/>
@@ -16564,13 +16832,13 @@
     </row>
     <row r="9" spans="1:55" x14ac:dyDescent="0.25">
       <c r="B9" s="11">
-        <f>Лист1!J3</f>
+        <f>'QP Vergleich'!J3</f>
         <v>3258.1120000000001</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="4">
-        <f>Лист1!K3</f>
+        <f>'QP Vergleich'!K3</f>
         <v>49.979300000000002</v>
       </c>
       <c r="F9" s="5"/>
@@ -16590,7 +16858,7 @@
         <v>83.791999999999916</v>
       </c>
       <c r="B10" s="11">
-        <f>Лист1!X3</f>
+        <f>'QP Vergleich'!X3</f>
         <v>3173.96</v>
       </c>
       <c r="C10" s="5"/>
@@ -16603,7 +16871,7 @@
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
       <c r="L10" s="4">
-        <f>Лист1!Y3</f>
+        <f>'QP Vergleich'!Y3</f>
         <v>47.720500000000001</v>
       </c>
       <c r="M10" s="5"/>
@@ -16612,11 +16880,11 @@
     </row>
     <row r="11" spans="1:55" x14ac:dyDescent="0.25">
       <c r="B11" s="12">
-        <f>Лист1!$F$3</f>
+        <f>'QP Vergleich'!$F$3</f>
         <v>3090.1680000000001</v>
       </c>
       <c r="C11" s="9">
-        <f>Лист1!$G$3</f>
+        <f>'QP Vergleich'!$G$3</f>
         <v>50.755000000000003</v>
       </c>
       <c r="D11" s="9"/>
@@ -16638,7 +16906,7 @@
         <v>81.432000000000244</v>
       </c>
       <c r="B12" s="11">
-        <f>Лист1!Z3</f>
+        <f>'QP Vergleich'!Z3</f>
         <v>3008.7359999999999</v>
       </c>
       <c r="C12" s="5"/>
@@ -16652,7 +16920,7 @@
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
       <c r="M12" s="4">
-        <f>Лист1!AA3</f>
+        <f>'QP Vergleich'!AA3</f>
         <v>46.759399999999999</v>
       </c>
       <c r="N12" s="5"/>
@@ -16661,7 +16929,7 @@
     <row r="13" spans="1:55" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
       <c r="B13" s="11">
-        <f>Лист1!AB3</f>
+        <f>'QP Vergleich'!AB3</f>
         <v>2840.288</v>
       </c>
       <c r="C13" s="5"/>
@@ -16676,7 +16944,7 @@
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
       <c r="N13" s="4">
-        <f>Лист1!$AC$3</f>
+        <f>'QP Vergleich'!$AC$3</f>
         <v>45.753100000000003</v>
       </c>
       <c r="O13" s="5"/>
@@ -16724,7 +16992,7 @@
     <row r="14" spans="1:55" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13"/>
       <c r="B14" s="11">
-        <f>Лист1!AD3</f>
+        <f>'QP Vergleich'!AD3</f>
         <v>2505.4879999999998</v>
       </c>
       <c r="C14" s="5"/>
@@ -16785,14 +17053,14 @@
     </row>
     <row r="15" spans="1:55" x14ac:dyDescent="0.25">
       <c r="B15" s="11">
-        <f>Лист1!L4</f>
+        <f>'QP Vergleich'!L4</f>
         <v>1767.7360000000001</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="4">
-        <f>Лист1!M4</f>
+        <f>'QP Vergleich'!M4</f>
         <v>44.864899999999999</v>
       </c>
       <c r="G15" s="5"/>
@@ -16807,7 +17075,7 @@
     </row>
     <row r="16" spans="1:55" x14ac:dyDescent="0.25">
       <c r="B16" s="10">
-        <f>Лист1!N4</f>
+        <f>'QP Vergleich'!N4</f>
         <v>1634.992</v>
       </c>
       <c r="C16" s="5"/>
@@ -16815,7 +17083,7 @@
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="4">
-        <f>Лист1!O4</f>
+        <f>'QP Vergleich'!O4</f>
         <v>43.853099999999998</v>
       </c>
       <c r="H16" s="5"/>
@@ -16829,12 +17097,12 @@
     </row>
     <row r="17" spans="1:55" x14ac:dyDescent="0.25">
       <c r="B17" s="11">
-        <f>Лист1!$H$4</f>
+        <f>'QP Vergleich'!$H$4</f>
         <v>1605.568</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="4">
-        <f>Лист1!$I$4</f>
+        <f>'QP Vergleich'!$I$4</f>
         <v>45.068100000000001</v>
       </c>
       <c r="E17" s="5"/>
@@ -16855,7 +17123,7 @@
         <v>87.839999999999918</v>
       </c>
       <c r="B18" s="10">
-        <f>Лист1!P4</f>
+        <f>'QP Vergleich'!P4</f>
         <v>1479.4639999999999</v>
       </c>
       <c r="C18" s="5"/>
@@ -16864,7 +17132,7 @@
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="4">
-        <f>Лист1!Q4</f>
+        <f>'QP Vergleich'!Q4</f>
         <v>42.665300000000002</v>
       </c>
       <c r="I18" s="5"/>
@@ -16877,11 +17145,11 @@
     </row>
     <row r="19" spans="1:55" x14ac:dyDescent="0.25">
       <c r="B19" s="12">
-        <f>Лист1!$F$4</f>
+        <f>'QP Vergleich'!$F$4</f>
         <v>1391.624</v>
       </c>
       <c r="C19" s="9">
-        <f>Лист1!$G$4</f>
+        <f>'QP Vergleich'!$G$4</f>
         <v>44.567399999999999</v>
       </c>
       <c r="D19" s="9"/>
@@ -16903,7 +17171,7 @@
         <v>60.759999999999991</v>
       </c>
       <c r="B20" s="10">
-        <f>Лист1!R4</f>
+        <f>'QP Vergleich'!R4</f>
         <v>1330.864</v>
       </c>
       <c r="C20" s="5"/>
@@ -16913,7 +17181,7 @@
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
       <c r="I20" s="4">
-        <f>Лист1!S4</f>
+        <f>'QP Vergleich'!S4</f>
         <v>41.548999999999999</v>
       </c>
       <c r="J20" s="5"/>
@@ -16925,7 +17193,7 @@
     </row>
     <row r="21" spans="1:55" x14ac:dyDescent="0.25">
       <c r="B21" s="10">
-        <f>Лист1!T4</f>
+        <f>'QP Vergleich'!T4</f>
         <v>1218.6079999999999</v>
       </c>
       <c r="C21" s="5"/>
@@ -16936,7 +17204,7 @@
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
       <c r="J21" s="4">
-        <f>Лист1!U4</f>
+        <f>'QP Vergleich'!U4</f>
         <v>40.657299999999999</v>
       </c>
       <c r="K21" s="5"/>
@@ -16947,13 +17215,13 @@
     </row>
     <row r="22" spans="1:55" x14ac:dyDescent="0.25">
       <c r="B22" s="11">
-        <f>Лист1!J4</f>
+        <f>'QP Vergleich'!J4</f>
         <v>1192.5519999999999</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="4">
-        <f>Лист1!K4</f>
+        <f>'QP Vergleich'!K4</f>
         <v>41.668399999999998</v>
       </c>
       <c r="F22" s="5"/>
@@ -16969,7 +17237,7 @@
     </row>
     <row r="23" spans="1:55" x14ac:dyDescent="0.25">
       <c r="B23" s="10">
-        <f>Лист1!V4</f>
+        <f>'QP Vergleich'!V4</f>
         <v>1131.816</v>
       </c>
       <c r="C23" s="5"/>
@@ -16981,7 +17249,7 @@
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
       <c r="K23" s="4">
-        <f>Лист1!W4</f>
+        <f>'QP Vergleich'!W4</f>
         <v>39.403199999999998</v>
       </c>
       <c r="L23" s="5"/>
@@ -16991,7 +17259,7 @@
     </row>
     <row r="24" spans="1:55" x14ac:dyDescent="0.25">
       <c r="B24" s="11">
-        <f>Лист1!X4</f>
+        <f>'QP Vergleich'!X4</f>
         <v>1066.5519999999999</v>
       </c>
       <c r="C24" s="5"/>
@@ -17004,7 +17272,7 @@
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
       <c r="L24" s="4">
-        <f>Лист1!Y4</f>
+        <f>'QP Vergleich'!Y4</f>
         <v>39.3127</v>
       </c>
       <c r="M24" s="5"/>
@@ -17013,7 +17281,7 @@
     </row>
     <row r="25" spans="1:55" x14ac:dyDescent="0.25">
       <c r="B25" s="11">
-        <f>Лист1!Z4</f>
+        <f>'QP Vergleich'!Z4</f>
         <v>1019.76</v>
       </c>
       <c r="C25" s="5"/>
@@ -17027,7 +17295,7 @@
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
       <c r="M25" s="4">
-        <f>Лист1!AA4</f>
+        <f>'QP Vergleich'!AA4</f>
         <v>38.827599999999997</v>
       </c>
       <c r="N25" s="5"/>
@@ -17035,7 +17303,7 @@
     </row>
     <row r="26" spans="1:55" x14ac:dyDescent="0.25">
       <c r="B26" s="11">
-        <f>Лист1!AB4</f>
+        <f>'QP Vergleich'!AB4</f>
         <v>981.64800000000002</v>
       </c>
       <c r="C26" s="5"/>
@@ -17050,7 +17318,7 @@
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
       <c r="N26" s="4">
-        <f>Лист1!AC4</f>
+        <f>'QP Vergleich'!AC4</f>
         <v>38.412999999999997</v>
       </c>
       <c r="O26" s="5"/>
@@ -17058,7 +17326,7 @@
     <row r="27" spans="1:55" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="13"/>
       <c r="B27" s="11">
-        <f>Лист1!AD4</f>
+        <f>'QP Vergleich'!AD4</f>
         <v>928.59199999999998</v>
       </c>
       <c r="C27" s="5"/>
@@ -17119,14 +17387,14 @@
     </row>
     <row r="28" spans="1:55" x14ac:dyDescent="0.25">
       <c r="B28" s="11">
-        <f>Лист1!L5</f>
+        <f>'QP Vergleich'!L5</f>
         <v>500.55200000000002</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
       <c r="F28" s="4">
-        <f>Лист1!M5</f>
+        <f>'QP Vergleich'!M5</f>
         <v>37.188200000000002</v>
       </c>
       <c r="G28" s="5"/>
@@ -17141,7 +17409,7 @@
     </row>
     <row r="29" spans="1:55" x14ac:dyDescent="0.25">
       <c r="B29" s="10">
-        <f>Лист1!N5</f>
+        <f>'QP Vergleich'!N5</f>
         <v>478.4</v>
       </c>
       <c r="C29" s="5"/>
@@ -17149,7 +17417,7 @@
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
       <c r="G29" s="4">
-        <f>Лист1!O5</f>
+        <f>'QP Vergleich'!O5</f>
         <v>36.835700000000003</v>
       </c>
       <c r="H29" s="5"/>
@@ -17164,7 +17432,7 @@
     <row r="30" spans="1:55" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="13"/>
       <c r="B30" s="10">
-        <f>Лист1!P5</f>
+        <f>'QP Vergleich'!P5</f>
         <v>457.26400000000001</v>
       </c>
       <c r="C30" s="5"/>
@@ -17173,7 +17441,7 @@
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
       <c r="H30" s="4">
-        <f>Лист1!Q5</f>
+        <f>'QP Vergleich'!Q5</f>
         <v>36.496600000000001</v>
       </c>
       <c r="I30" s="5"/>
@@ -17226,7 +17494,7 @@
     </row>
     <row r="31" spans="1:55" x14ac:dyDescent="0.25">
       <c r="B31" s="10">
-        <f>Лист1!R5</f>
+        <f>'QP Vergleich'!R5</f>
         <v>438.49599999999998</v>
       </c>
       <c r="C31" s="5"/>
@@ -17236,7 +17504,7 @@
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
       <c r="I31" s="4">
-        <f>Лист1!S5</f>
+        <f>'QP Vergleich'!S5</f>
         <v>36.142499999999998</v>
       </c>
       <c r="J31" s="5"/>
@@ -17248,7 +17516,7 @@
     </row>
     <row r="32" spans="1:55" x14ac:dyDescent="0.25">
       <c r="B32" s="10">
-        <f>Лист1!T5</f>
+        <f>'QP Vergleich'!T5</f>
         <v>421.25599999999997</v>
       </c>
       <c r="C32" s="5"/>
@@ -17259,7 +17527,7 @@
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
       <c r="J32" s="4">
-        <f>Лист1!U5</f>
+        <f>'QP Vergleich'!U5</f>
         <v>35.795499999999997</v>
       </c>
       <c r="K32" s="5"/>
@@ -17270,12 +17538,12 @@
     </row>
     <row r="33" spans="1:55" x14ac:dyDescent="0.25">
       <c r="B33" s="11">
-        <f>Лист1!$H$5</f>
+        <f>'QP Vergleich'!$H$5</f>
         <v>414.76</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="4">
-        <f>Лист1!$I$5</f>
+        <f>'QP Vergleich'!$I$5</f>
         <v>36.866300000000003</v>
       </c>
       <c r="E33" s="5"/>
@@ -17292,7 +17560,7 @@
     </row>
     <row r="34" spans="1:55" x14ac:dyDescent="0.25">
       <c r="B34" s="10">
-        <f>Лист1!V5</f>
+        <f>'QP Vergleich'!V5</f>
         <v>409.88</v>
       </c>
       <c r="C34" s="5"/>
@@ -17304,7 +17572,7 @@
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
       <c r="K34" s="4">
-        <f>Лист1!W5</f>
+        <f>'QP Vergleich'!W5</f>
         <v>35.496200000000002</v>
       </c>
       <c r="L34" s="5"/>
@@ -17314,7 +17582,7 @@
     </row>
     <row r="35" spans="1:55" x14ac:dyDescent="0.25">
       <c r="B35" s="11">
-        <f>Лист1!X5</f>
+        <f>'QP Vergleich'!X5</f>
         <v>396.65600000000001</v>
       </c>
       <c r="C35" s="5"/>
@@ -17327,7 +17595,7 @@
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
       <c r="L35" s="4">
-        <f>Лист1!Y5</f>
+        <f>'QP Vergleich'!Y5</f>
         <v>35.148600000000002</v>
       </c>
       <c r="M35" s="5"/>
@@ -17397,7 +17665,7 @@
     </row>
     <row r="37" spans="1:55" x14ac:dyDescent="0.25">
       <c r="B37" s="11">
-        <f>Лист1!AB5</f>
+        <f>'QP Vergleich'!AB5</f>
         <v>375.86399999999998</v>
       </c>
       <c r="C37" s="5"/>
@@ -17412,7 +17680,7 @@
       <c r="L37" s="5"/>
       <c r="M37" s="5"/>
       <c r="N37" s="4">
-        <f>Лист1!AC5</f>
+        <f>'QP Vergleich'!AC5</f>
         <v>34.502899999999997</v>
       </c>
       <c r="O37" s="5"/>
@@ -17438,17 +17706,17 @@
       <c r="M38" s="5"/>
       <c r="N38" s="5"/>
       <c r="O38" s="4">
-        <f>Лист1!AE5</f>
+        <f>'QP Vergleich'!AE5</f>
         <v>33.845500000000001</v>
       </c>
     </row>
     <row r="39" spans="1:55" x14ac:dyDescent="0.25">
       <c r="B39" s="12">
-        <f>Лист1!$F$5</f>
+        <f>'QP Vergleich'!$F$5</f>
         <v>358.34399999999999</v>
       </c>
       <c r="C39" s="9">
-        <f>Лист1!$G$5</f>
+        <f>'QP Vergleich'!$G$5</f>
         <v>36.579000000000001</v>
       </c>
       <c r="D39" s="9"/>
@@ -17470,13 +17738,13 @@
         <v>9.73599999999999</v>
       </c>
       <c r="B40" s="11">
-        <f>Лист1!J5</f>
+        <f>'QP Vergleich'!J5</f>
         <v>348.608</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
       <c r="E40" s="4">
-        <f>Лист1!K5</f>
+        <f>'QP Vergleich'!K5</f>
         <v>35.834099999999999</v>
       </c>
       <c r="F40" s="5"/>
@@ -17532,14 +17800,14 @@
     </row>
     <row r="41" spans="1:55" x14ac:dyDescent="0.25">
       <c r="B41" s="11">
-        <f>Лист1!L6</f>
+        <f>'QP Vergleich'!L6</f>
         <v>135.04</v>
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
       <c r="F41" s="4">
-        <f>Лист1!M6</f>
+        <f>'QP Vergleich'!M6</f>
         <v>32.6892</v>
       </c>
       <c r="G41" s="5"/>
@@ -17551,13 +17819,13 @@
       <c r="M41" s="5"/>
       <c r="N41" s="5"/>
       <c r="O41" s="4">
-        <f>Лист1!AE6</f>
+        <f>'QP Vergleich'!AE6</f>
         <v>32.6892</v>
       </c>
     </row>
     <row r="42" spans="1:55" x14ac:dyDescent="0.25">
       <c r="B42" s="10">
-        <f>Лист1!N6</f>
+        <f>'QP Vergleich'!N6</f>
         <v>130.34399999999999</v>
       </c>
       <c r="C42" s="5"/>
@@ -17565,7 +17833,7 @@
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
       <c r="G42" s="4">
-        <f>Лист1!O6</f>
+        <f>'QP Vergleich'!O6</f>
         <v>32.381500000000003</v>
       </c>
       <c r="H42" s="5"/>
@@ -17579,7 +17847,7 @@
     </row>
     <row r="43" spans="1:55" x14ac:dyDescent="0.25">
       <c r="B43" s="10">
-        <f>Лист1!P6</f>
+        <f>'QP Vergleich'!P6</f>
         <v>127</v>
       </c>
       <c r="C43" s="5"/>
@@ -17588,7 +17856,7 @@
       <c r="F43" s="5"/>
       <c r="G43" s="5"/>
       <c r="H43" s="4">
-        <f>Лист1!Q6</f>
+        <f>'QP Vergleich'!Q6</f>
         <v>32.167400000000001</v>
       </c>
       <c r="I43" s="5"/>
@@ -17601,7 +17869,7 @@
     </row>
     <row r="44" spans="1:55" x14ac:dyDescent="0.25">
       <c r="B44" s="10">
-        <f>Лист1!R6</f>
+        <f>'QP Vergleich'!R6</f>
         <v>123.384</v>
       </c>
       <c r="C44" s="5"/>
@@ -17611,7 +17879,7 @@
       <c r="G44" s="5"/>
       <c r="H44" s="5"/>
       <c r="I44" s="4">
-        <f>Лист1!S6</f>
+        <f>'QP Vergleich'!S6</f>
         <v>31.8962</v>
       </c>
       <c r="J44" s="5"/>
@@ -17624,7 +17892,7 @@
     <row r="45" spans="1:55" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="13"/>
       <c r="B45" s="10">
-        <f>Лист1!T6</f>
+        <f>'QP Vergleich'!T6</f>
         <v>119.512</v>
       </c>
       <c r="C45" s="5"/>
@@ -17635,7 +17903,7 @@
       <c r="H45" s="5"/>
       <c r="I45" s="5"/>
       <c r="J45" s="4">
-        <f>Лист1!U6</f>
+        <f>'QP Vergleich'!U6</f>
         <v>31.5853</v>
       </c>
       <c r="K45" s="5"/>
@@ -17686,7 +17954,7 @@
     </row>
     <row r="46" spans="1:55" x14ac:dyDescent="0.25">
       <c r="B46" s="10">
-        <f>Лист1!V6</f>
+        <f>'QP Vergleich'!V6</f>
         <v>117.44799999999999</v>
       </c>
       <c r="C46" s="5"/>
@@ -17698,7 +17966,7 @@
       <c r="I46" s="5"/>
       <c r="J46" s="5"/>
       <c r="K46" s="4">
-        <f>Лист1!W6</f>
+        <f>'QP Vergleich'!W6</f>
         <v>31.3248</v>
       </c>
       <c r="L46" s="5"/>
@@ -17708,7 +17976,7 @@
     </row>
     <row r="47" spans="1:55" x14ac:dyDescent="0.25">
       <c r="B47" s="11">
-        <f>Лист1!X6</f>
+        <f>'QP Vergleich'!X6</f>
         <v>115.11199999999999</v>
       </c>
       <c r="C47" s="5"/>
@@ -17721,7 +17989,7 @@
       <c r="J47" s="5"/>
       <c r="K47" s="5"/>
       <c r="L47" s="4">
-        <f>Лист1!Y6</f>
+        <f>'QP Vergleich'!Y6</f>
         <v>31.129300000000001</v>
       </c>
       <c r="M47" s="5"/>
@@ -17750,7 +18018,7 @@
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B49" s="11">
-        <f>Лист1!AB6</f>
+        <f>'QP Vergleich'!AB6</f>
         <v>110.944</v>
       </c>
       <c r="C49" s="5"/>
@@ -17765,19 +18033,19 @@
       <c r="L49" s="5"/>
       <c r="M49" s="5"/>
       <c r="N49" s="4">
-        <f>Лист1!AC6</f>
+        <f>'QP Vergleich'!AC6</f>
         <v>30.407599999999999</v>
       </c>
       <c r="O49" s="5"/>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B50" s="11">
-        <f>Лист1!$H$6</f>
+        <f>'QP Vergleich'!$H$6</f>
         <v>102.55200000000001</v>
       </c>
       <c r="C50" s="5"/>
       <c r="D50" s="4">
-        <f>Лист1!$I$6</f>
+        <f>'QP Vergleich'!$I$6</f>
         <v>32.163499999999999</v>
       </c>
       <c r="E50" s="5"/>
@@ -17798,13 +18066,13 @@
         <v>3.7599999999999909</v>
       </c>
       <c r="B51" s="11">
-        <f>Лист1!J6</f>
+        <f>'QP Vergleich'!J6</f>
         <v>89.263999999999996</v>
       </c>
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
       <c r="E51" s="4">
-        <f>Лист1!K6</f>
+        <f>'QP Vergleich'!K6</f>
         <v>31.342700000000001</v>
       </c>
       <c r="F51" s="5"/>
@@ -17820,11 +18088,11 @@
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B52" s="12">
-        <f>Лист1!$F$6</f>
+        <f>'QP Vergleich'!$F$6</f>
         <v>85.504000000000005</v>
       </c>
       <c r="C52" s="9">
-        <f>Лист1!$G$6</f>
+        <f>'QP Vergleich'!$G$6</f>
         <v>31.751899999999999</v>
       </c>
       <c r="D52" s="9"/>
@@ -17846,14 +18114,14 @@
         <v>52.344000000000008</v>
       </c>
       <c r="B53" s="11">
-        <f>Лист1!L7</f>
+        <f>'QP Vergleich'!L7</f>
         <v>33.159999999999997</v>
       </c>
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
       <c r="F53" s="4">
-        <f>Лист1!M7</f>
+        <f>'QP Vergleich'!M7</f>
         <v>28.367599999999999</v>
       </c>
       <c r="G53" s="5"/>
@@ -17868,7 +18136,7 @@
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B54" s="11">
-        <f>Лист1!X7</f>
+        <f>'QP Vergleich'!X7</f>
         <v>32.192</v>
       </c>
       <c r="C54" s="5"/>
@@ -17876,50 +18144,50 @@
       <c r="E54" s="5"/>
       <c r="F54" s="5"/>
       <c r="G54" s="4">
-        <f>Лист1!O7</f>
+        <f>'QP Vergleich'!O7</f>
         <v>28.1508</v>
       </c>
       <c r="H54" s="4">
-        <f>Лист1!Q7</f>
+        <f>'QP Vergleich'!Q7</f>
         <v>28.1508</v>
       </c>
       <c r="I54" s="4">
-        <f>Лист1!S7</f>
+        <f>'QP Vergleich'!S7</f>
         <v>28.1508</v>
       </c>
       <c r="J54" s="4">
-        <f>Лист1!U7</f>
+        <f>'QP Vergleich'!U7</f>
         <v>28.1508</v>
       </c>
       <c r="K54" s="4">
-        <f>Лист1!W7</f>
+        <f>'QP Vergleich'!W7</f>
         <v>28.1508</v>
       </c>
       <c r="L54" s="4">
-        <f>Лист1!Y7</f>
+        <f>'QP Vergleich'!Y7</f>
         <v>28.1508</v>
       </c>
       <c r="M54" s="4">
-        <f>Лист1!AA7</f>
+        <f>'QP Vergleich'!AA7</f>
         <v>28.1508</v>
       </c>
       <c r="N54" s="4">
-        <f>Лист1!AC7</f>
+        <f>'QP Vergleich'!AC7</f>
         <v>28.1508</v>
       </c>
       <c r="O54" s="4">
-        <f>Лист1!AE7</f>
+        <f>'QP Vergleich'!AE7</f>
         <v>28.1508</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B55" s="11">
-        <f>Лист1!$H$7</f>
+        <f>'QP Vergleich'!$H$7</f>
         <v>26.152000000000001</v>
       </c>
       <c r="C55" s="5"/>
       <c r="D55" s="4">
-        <f>Лист1!$I$7</f>
+        <f>'QP Vergleich'!$I$7</f>
         <v>27.8873</v>
       </c>
       <c r="E55" s="5"/>
@@ -17940,13 +18208,13 @@
         <v>2.6640000000000015</v>
       </c>
       <c r="B56" s="11">
-        <f>Лист1!J7</f>
+        <f>'QP Vergleich'!J7</f>
         <v>24.896000000000001</v>
       </c>
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
       <c r="E56" s="4">
-        <f>Лист1!K7</f>
+        <f>'QP Vergleich'!K7</f>
         <v>27.661300000000001</v>
       </c>
       <c r="F56" s="5"/>
@@ -17962,11 +18230,11 @@
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B57" s="12">
-        <f>Лист1!$F$7</f>
+        <f>'QP Vergleich'!$F$7</f>
         <v>22.231999999999999</v>
       </c>
       <c r="C57" s="9">
-        <f>Лист1!$G$7</f>
+        <f>'QP Vergleich'!$G$7</f>
         <v>27.592400000000001</v>
       </c>
       <c r="D57" s="9"/>
